--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +580,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>